--- a/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_extended_isoelastic.xlsx
+++ b/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_extended_isoelastic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Group</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tot_excl</t>
   </si>
   <si>
     <t xml:space="preserve">w</t>
@@ -449,46 +452,46 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>0.966114154821934</v>
+        <v>0.966114154743509</v>
       </c>
       <c r="C2" t="n">
-        <v>189.172470588797</v>
+        <v>189.172470010823</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.961301309567984</v>
+        <v>-0.961301309568977</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.968406992009873</v>
+        <v>-0.968406992011181</v>
       </c>
       <c r="F2" t="n">
-        <v>0.952750447384908</v>
+        <v>0.952750447439597</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.3524159670651</v>
+        <v>-10.3524159669926</v>
       </c>
       <c r="H2" t="n">
-        <v>-676.715798029307</v>
+        <v>-676.715798022042</v>
       </c>
       <c r="I2" t="n">
-        <v>2.87503034672182</v>
+        <v>2.87503034103152</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.465497170611369</v>
+        <v>-0.46549717061138</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.490921519323632</v>
+        <v>-0.4909215193235</v>
       </c>
       <c r="L2" t="n">
-        <v>0.952750447384908</v>
+        <v>0.952750447439597</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0210805698890075</v>
+        <v>-0.0210805698890736</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.44259223513687</v>
+        <v>-1.44259223514332</v>
       </c>
       <c r="O2" t="n">
-        <v>2.87503034672182</v>
+        <v>2.87503034103152</v>
       </c>
     </row>
     <row r="3">
@@ -496,46 +499,46 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.547610477341699</v>
+        <v>0.966114154821934</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.03788522848991</v>
+        <v>189.172470588797</v>
       </c>
       <c r="D3" t="n">
-        <v>0.934522786539071</v>
+        <v>-0.961301309567984</v>
       </c>
       <c r="E3" t="n">
-        <v>0.957350573531521</v>
+        <v>-0.968406992009873</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.66685658332349</v>
+        <v>0.952750447384908</v>
       </c>
       <c r="G3" t="n">
-        <v>0.384217113041074</v>
+        <v>-10.3524159670651</v>
       </c>
       <c r="H3" t="n">
-        <v>25.5401844753712</v>
+        <v>-676.715798029307</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.150846860538373</v>
+        <v>2.87503034672182</v>
       </c>
       <c r="J3" t="n">
-        <v>0.935217939662453</v>
+        <v>-0.465497170611369</v>
       </c>
       <c r="K3" t="n">
-        <v>0.96027381548227</v>
+        <v>-0.490921519323632</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.66685658332349</v>
+        <v>0.952750447384908</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0302494225528642</v>
+        <v>-0.0210805698890075</v>
       </c>
       <c r="N3" t="n">
-        <v>2.01542000583736</v>
+        <v>-1.44259223513687</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.150846860538373</v>
+        <v>2.87503034672182</v>
       </c>
     </row>
     <row r="4">
@@ -543,45 +546,92 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
+        <v>-0.547610477356539</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-8.03788502365533</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.93452278654954</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.957350573531041</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.666856584672091</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.384217112938761</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25.5401844642189</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.15084685918094</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.935217939662601</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.960273815482235</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.666856584672091</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0302494225529465</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.01542000584516</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.15084685918094</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
         <v>0.968730928781065</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>197.210355817287</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>-0.963215329134379</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>-0.970922359911934</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>0.964474984588171</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>-10.7366330801062</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>-702.255982504678</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>3.02587720726019</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>-0.829106766601988</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>-0.860794665039772</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L5" t="n">
         <v>0.964474984588171</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M5" t="n">
         <v>-0.0513299924418716</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N5" t="n">
         <v>-3.45801224097423</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>3.02587720726019</v>
       </c>
     </row>

--- a/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_extended_isoelastic.xlsx
+++ b/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_extended_isoelastic.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">tot</t>
   </si>
   <si>
-    <t xml:space="preserve">tot_excl</t>
+    <t xml:space="preserve">tot_non_human</t>
   </si>
   <si>
     <t xml:space="preserve">w</t>
@@ -452,46 +452,46 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>0.966114154743509</v>
+        <v>0.966451902246659</v>
       </c>
       <c r="C2" t="n">
-        <v>189.172470010823</v>
+        <v>190.172470582294</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.961301309568977</v>
+        <v>-0.953186674888565</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.968406992011181</v>
+        <v>-0.967727414750586</v>
       </c>
       <c r="F2" t="n">
-        <v>0.952750447439597</v>
+        <v>0.952817658740135</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.3524159669926</v>
+        <v>-9.35241596704237</v>
       </c>
       <c r="H2" t="n">
-        <v>-676.715798022042</v>
+        <v>-616.119728561712</v>
       </c>
       <c r="I2" t="n">
-        <v>2.87503034103152</v>
+        <v>2.88942204403882</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.46549717061138</v>
+        <v>0.999162863859803</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4909215193235</v>
+        <v>0.930472185862176</v>
       </c>
       <c r="L2" t="n">
-        <v>0.952750447439597</v>
+        <v>0.952817658740135</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0210805698890736</v>
+        <v>0.978919430110929</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.44259223514332</v>
+        <v>59.1534772314427</v>
       </c>
       <c r="O2" t="n">
-        <v>2.87503034103152</v>
+        <v>2.88942204403882</v>
       </c>
     </row>
     <row r="3">

--- a/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_extended_isoelastic.xlsx
+++ b/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_extended_isoelastic.xlsx
@@ -452,46 +452,46 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>0.966451902246659</v>
+        <v>-0.999490387984652</v>
       </c>
       <c r="C2" t="n">
-        <v>190.172470582294</v>
+        <v>-167965945.557761</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.953186674888565</v>
+        <v>0.926358919415356</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.967727414750586</v>
+        <v>0.99949004866267</v>
       </c>
       <c r="F2" t="n">
-        <v>0.952817658740135</v>
+        <v>-0.926364242460019</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.35241596704237</v>
+        <v>100755.249805733</v>
       </c>
       <c r="H2" t="n">
-        <v>-616.119728561712</v>
+        <v>7053961.58094114</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88942204403882</v>
+        <v>-2399154.30633273</v>
       </c>
       <c r="J2" t="n">
-        <v>0.999162863859803</v>
+        <v>0.929451068167082</v>
       </c>
       <c r="K2" t="n">
-        <v>0.930472185862176</v>
+        <v>0.999621948636469</v>
       </c>
       <c r="L2" t="n">
-        <v>0.952817658740135</v>
+        <v>-0.926364242460019</v>
       </c>
       <c r="M2" t="n">
-        <v>0.978919430110929</v>
+        <v>42.0068519308034</v>
       </c>
       <c r="N2" t="n">
-        <v>59.1534772314427</v>
+        <v>2931.5385345074</v>
       </c>
       <c r="O2" t="n">
-        <v>2.88942204403882</v>
+        <v>-2399154.30633273</v>
       </c>
     </row>
     <row r="3">
@@ -546,46 +546,46 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.547610477356539</v>
+        <v>-0.999490392340614</v>
       </c>
       <c r="C4" t="n">
-        <v>-8.03788502365533</v>
+        <v>-167966143.768117</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93452278654954</v>
+        <v>0.92636449245941</v>
       </c>
       <c r="E4" t="n">
-        <v>0.957350573531041</v>
+        <v>0.999490393066385</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.666856584672091</v>
+        <v>-0.926364327241407</v>
       </c>
       <c r="G4" t="n">
-        <v>0.384217112938761</v>
+        <v>100764.986438813</v>
       </c>
       <c r="H4" t="n">
-        <v>25.5401844642189</v>
+        <v>7054603.24085416</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.15084685918094</v>
+        <v>-2399157.34660164</v>
       </c>
       <c r="J4" t="n">
-        <v>0.935217939662601</v>
+        <v>0.926397426602952</v>
       </c>
       <c r="K4" t="n">
-        <v>0.960273815482235</v>
+        <v>0.999490528013075</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.666856584672091</v>
+        <v>-0.926364327241407</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0302494225529465</v>
+        <v>41.0581819232453</v>
       </c>
       <c r="N4" t="n">
-        <v>2.01542000584516</v>
+        <v>2874.40047728179</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.15084685918094</v>
+        <v>-2399157.34660164</v>
       </c>
     </row>
     <row r="5">

--- a/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_extended_isoelastic.xlsx
+++ b/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_extended_isoelastic.xlsx
@@ -452,46 +452,46 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.999490387984652</v>
+        <v>-0.999391737847945</v>
       </c>
       <c r="C2" t="n">
-        <v>-167965945.557761</v>
+        <v>-168212921.728772</v>
       </c>
       <c r="D2" t="n">
-        <v>0.926358919415356</v>
+        <v>0.922159671674992</v>
       </c>
       <c r="E2" t="n">
-        <v>0.99949004866267</v>
+        <v>0.999391315109391</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.926364242460019</v>
+        <v>-0.922167519616221</v>
       </c>
       <c r="G2" t="n">
-        <v>100755.249805733</v>
+        <v>110896.139792307</v>
       </c>
       <c r="H2" t="n">
-        <v>7053961.58094114</v>
+        <v>7064324.67494998</v>
       </c>
       <c r="I2" t="n">
-        <v>-2399154.30633273</v>
+        <v>-2640636.63616957</v>
       </c>
       <c r="J2" t="n">
-        <v>0.929451068167082</v>
+        <v>0.924928169982639</v>
       </c>
       <c r="K2" t="n">
-        <v>0.999621948636469</v>
+        <v>0.999548213774337</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.926364242460019</v>
+        <v>-0.922167519616221</v>
       </c>
       <c r="M2" t="n">
-        <v>42.0068519308034</v>
+        <v>46.1093809472369</v>
       </c>
       <c r="N2" t="n">
-        <v>2931.5385345074</v>
+        <v>2928.93550665638</v>
       </c>
       <c r="O2" t="n">
-        <v>-2399154.30633273</v>
+        <v>-2640636.63616957</v>
       </c>
     </row>
     <row r="3">
@@ -499,46 +499,46 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.966114154821934</v>
+        <v>0.960692208521904</v>
       </c>
       <c r="C3" t="n">
-        <v>189.172470588797</v>
+        <v>191.766895909241</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.961301309567984</v>
+        <v>-0.975261734804538</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.968406992009873</v>
+        <v>-0.962466664394755</v>
       </c>
       <c r="F3" t="n">
-        <v>0.952750447384908</v>
+        <v>0.96849110342503</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.3524159670651</v>
+        <v>-11.7377292166049</v>
       </c>
       <c r="H3" t="n">
-        <v>-676.715798029307</v>
+        <v>-680.884385471807</v>
       </c>
       <c r="I3" t="n">
-        <v>2.87503034672182</v>
+        <v>3.2889723996093</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.465497170611369</v>
+        <v>-0.972686823897195</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.490921519323632</v>
+        <v>-0.83308458247653</v>
       </c>
       <c r="L3" t="n">
-        <v>0.952750447384908</v>
+        <v>0.96849110342503</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0210805698890075</v>
+        <v>-0.0481424735795197</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.44259223513687</v>
+        <v>-2.42364630721163</v>
       </c>
       <c r="O3" t="n">
-        <v>2.87503034672182</v>
+        <v>3.2889723996093</v>
       </c>
     </row>
     <row r="4">
@@ -546,46 +546,46 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.999490392340614</v>
+        <v>-0.999391742941703</v>
       </c>
       <c r="C4" t="n">
-        <v>-167966143.768117</v>
+        <v>-168213116.810482</v>
       </c>
       <c r="D4" t="n">
-        <v>0.92636449245941</v>
+        <v>0.922167574618194</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999490393066385</v>
+        <v>0.999391739254949</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.926364327241407</v>
+        <v>-0.922167621188412</v>
       </c>
       <c r="G4" t="n">
-        <v>100764.986438813</v>
+        <v>110907.217803063</v>
       </c>
       <c r="H4" t="n">
-        <v>7054603.24085416</v>
+        <v>7064972.81960954</v>
       </c>
       <c r="I4" t="n">
-        <v>-2399157.34660164</v>
+        <v>-2640639.9759917</v>
       </c>
       <c r="J4" t="n">
-        <v>0.926397426602952</v>
+        <v>0.922158487999296</v>
       </c>
       <c r="K4" t="n">
-        <v>0.999490528013075</v>
+        <v>0.999391020084426</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.926364327241407</v>
+        <v>-0.922167621188412</v>
       </c>
       <c r="M4" t="n">
-        <v>41.0581819232453</v>
+        <v>45.1845437846978</v>
       </c>
       <c r="N4" t="n">
-        <v>2874.40047728179</v>
+        <v>2878.35630414182</v>
       </c>
       <c r="O4" t="n">
-        <v>-2399157.34660164</v>
+        <v>-2640639.9759917</v>
       </c>
     </row>
     <row r="5">
@@ -593,46 +593,46 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.968730928781065</v>
+        <v>0.961809438901286</v>
       </c>
       <c r="C5" t="n">
-        <v>197.210355817287</v>
+        <v>194.081710310473</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.963215329134379</v>
+        <v>-0.97466736170898</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.970922359911934</v>
+        <v>-0.964998854783382</v>
       </c>
       <c r="F5" t="n">
-        <v>0.964474984588171</v>
+        <v>0.968248888269855</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.7366330801062</v>
+        <v>-12.0780107556611</v>
       </c>
       <c r="H5" t="n">
-        <v>-702.255982504678</v>
+        <v>-702.895176981353</v>
       </c>
       <c r="I5" t="n">
-        <v>3.02587720726019</v>
+        <v>3.32397544008159</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.829106766601988</v>
+        <v>-0.99689925165445</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.860794665039772</v>
+        <v>-0.941231183566587</v>
       </c>
       <c r="L5" t="n">
-        <v>0.964474984588171</v>
+        <v>0.968248888269855</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0513299924418716</v>
+        <v>-0.0751628374609167</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.45801224097423</v>
+        <v>-4.17131493677733</v>
       </c>
       <c r="O5" t="n">
-        <v>3.02587720726019</v>
+        <v>3.32397544008159</v>
       </c>
     </row>
   </sheetData>

--- a/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_extended_isoelastic.xlsx
+++ b/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_extended_isoelastic.xlsx
@@ -452,46 +452,46 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.999391737847945</v>
+        <v>-0.999490387148179</v>
       </c>
       <c r="C2" t="n">
-        <v>-168212921.728772</v>
+        <v>-167965927.894281</v>
       </c>
       <c r="D2" t="n">
-        <v>0.922159671674992</v>
+        <v>0.926355631532108</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999391315109391</v>
+        <v>0.999489987150287</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.922167519616221</v>
+        <v>-0.92636419768201</v>
       </c>
       <c r="G2" t="n">
-        <v>110896.139792307</v>
+        <v>100754.120448421</v>
       </c>
       <c r="H2" t="n">
-        <v>7064324.67494998</v>
+        <v>7053907.11565235</v>
       </c>
       <c r="I2" t="n">
-        <v>-2640636.63616957</v>
+        <v>-2399153.94007414</v>
       </c>
       <c r="J2" t="n">
-        <v>0.924928169982639</v>
+        <v>0.929278768819567</v>
       </c>
       <c r="K2" t="n">
-        <v>0.999548213774337</v>
+        <v>0.99962283542434</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.922167519616221</v>
+        <v>-0.92636419768201</v>
       </c>
       <c r="M2" t="n">
-        <v>46.1093809472369</v>
+        <v>41.9815362896275</v>
       </c>
       <c r="N2" t="n">
-        <v>2928.93550665638</v>
+        <v>2930.31764215318</v>
       </c>
       <c r="O2" t="n">
-        <v>-2640636.63616957</v>
+        <v>-2399153.94007414</v>
       </c>
     </row>
     <row r="3">
@@ -499,46 +499,46 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.960692208521904</v>
+        <v>0.96075179708399</v>
       </c>
       <c r="C3" t="n">
-        <v>191.766895909241</v>
+        <v>206.835950169165</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.975261734804538</v>
+        <v>-0.981202797401017</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.962466664394755</v>
+        <v>-0.962960650780198</v>
       </c>
       <c r="F3" t="n">
-        <v>0.96849110342503</v>
+        <v>0.976942819848314</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.7377292166049</v>
+        <v>-11.4817732788698</v>
       </c>
       <c r="H3" t="n">
-        <v>-680.884385471807</v>
+        <v>-731.181086803771</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2889723996093</v>
+        <v>3.24128893572162</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.972686823897195</v>
+        <v>-0.977360710134198</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.83308458247653</v>
+        <v>-0.864681824892635</v>
       </c>
       <c r="L3" t="n">
-        <v>0.96849110342503</v>
+        <v>0.976942819848314</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0481424735795197</v>
+        <v>-0.0463962110648951</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.42364630721163</v>
+        <v>-2.66348458934856</v>
       </c>
       <c r="O3" t="n">
-        <v>3.2889723996093</v>
+        <v>3.24128893572162</v>
       </c>
     </row>
     <row r="4">
@@ -546,46 +546,46 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.999391742941703</v>
+        <v>-0.999490392066368</v>
       </c>
       <c r="C4" t="n">
-        <v>-168213116.810482</v>
+        <v>-167966137.976772</v>
       </c>
       <c r="D4" t="n">
-        <v>0.922167574618194</v>
+        <v>0.926364263850576</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999391739254949</v>
+        <v>0.999490388796542</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.922167621188412</v>
+        <v>-0.926364312560023</v>
       </c>
       <c r="G4" t="n">
-        <v>110907.217803063</v>
+        <v>100764.907902833</v>
       </c>
       <c r="H4" t="n">
-        <v>7064972.81960954</v>
+        <v>7054599.45331518</v>
       </c>
       <c r="I4" t="n">
-        <v>-2640639.9759917</v>
+        <v>-2399157.22651604</v>
       </c>
       <c r="J4" t="n">
-        <v>0.922158487999296</v>
+        <v>0.926354758521594</v>
       </c>
       <c r="K4" t="n">
-        <v>0.999391020084426</v>
+        <v>0.999489750828276</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.922167621188412</v>
+        <v>-0.926364312560023</v>
       </c>
       <c r="M4" t="n">
-        <v>45.1845437846978</v>
+        <v>41.0522069802834</v>
       </c>
       <c r="N4" t="n">
-        <v>2878.35630414182</v>
+        <v>2874.11232490483</v>
       </c>
       <c r="O4" t="n">
-        <v>-2640639.9759917</v>
+        <v>-2399157.22651604</v>
       </c>
     </row>
     <row r="5">
@@ -593,46 +593,46 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.961809438901286</v>
+        <v>0.96180749989664</v>
       </c>
       <c r="C5" t="n">
-        <v>194.081710310473</v>
+        <v>209.082491389357</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.97466736170898</v>
+        <v>-0.980597891921489</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.964998854783382</v>
+        <v>-0.965298129808319</v>
       </c>
       <c r="F5" t="n">
-        <v>0.968248888269855</v>
+        <v>0.976689839206097</v>
       </c>
       <c r="G5" t="n">
-        <v>-12.0780107556611</v>
+        <v>-11.7874544116808</v>
       </c>
       <c r="H5" t="n">
-        <v>-702.895176981353</v>
+        <v>-752.933732297715</v>
       </c>
       <c r="I5" t="n">
-        <v>3.32397544008159</v>
+        <v>3.27205019957783</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.99689925165445</v>
+        <v>-0.992609080803939</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.941231183566587</v>
+        <v>-0.950411360499961</v>
       </c>
       <c r="L5" t="n">
-        <v>0.968248888269855</v>
+        <v>0.976689839206097</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0751628374609167</v>
+        <v>-0.070670690655805</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.17131493677733</v>
+        <v>-4.39075221822583</v>
       </c>
       <c r="O5" t="n">
-        <v>3.32397544008159</v>
+        <v>3.27205019957783</v>
       </c>
     </row>
   </sheetData>

--- a/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_extended_isoelastic.xlsx
+++ b/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_extended_isoelastic.xlsx
@@ -452,46 +452,46 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.999490387148179</v>
+        <v>-0.999490387077816</v>
       </c>
       <c r="C2" t="n">
-        <v>-167965927.894281</v>
+        <v>-167965926.03901</v>
       </c>
       <c r="D2" t="n">
-        <v>0.926355631532108</v>
+        <v>0.926355130140787</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999489987150287</v>
+        <v>0.999489979962112</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.92636419768201</v>
+        <v>-0.926364192749595</v>
       </c>
       <c r="G2" t="n">
-        <v>100754.120448421</v>
+        <v>100753.953522504</v>
       </c>
       <c r="H2" t="n">
-        <v>7053907.11565235</v>
+        <v>7053899.19618733</v>
       </c>
       <c r="I2" t="n">
-        <v>-2399153.94007414</v>
+        <v>-2399153.90096887</v>
       </c>
       <c r="J2" t="n">
-        <v>0.929278768819567</v>
+        <v>0.929257128540929</v>
       </c>
       <c r="K2" t="n">
-        <v>0.99962283542434</v>
+        <v>0.999622989973222</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.92636419768201</v>
+        <v>-0.926364192749595</v>
       </c>
       <c r="M2" t="n">
-        <v>41.9815362896275</v>
+        <v>41.9784639654396</v>
       </c>
       <c r="N2" t="n">
-        <v>2930.31764215318</v>
+        <v>2930.17188190043</v>
       </c>
       <c r="O2" t="n">
-        <v>-2399153.94007414</v>
+        <v>-2399153.90096887</v>
       </c>
     </row>
     <row r="3">
@@ -499,46 +499,46 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.96075179708399</v>
+        <v>0.958630856791998</v>
       </c>
       <c r="C3" t="n">
-        <v>206.835950169165</v>
+        <v>208.691221224262</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.981202797401017</v>
+        <v>-0.982270111965695</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.962960650780198</v>
+        <v>-0.960485486419506</v>
       </c>
       <c r="F3" t="n">
-        <v>0.976942819848314</v>
+        <v>0.977776237804515</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.4817732788698</v>
+        <v>-11.6486991963556</v>
       </c>
       <c r="H3" t="n">
-        <v>-731.181086803771</v>
+        <v>-739.100551819794</v>
       </c>
       <c r="I3" t="n">
-        <v>3.24128893572162</v>
+        <v>3.28039420639715</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.977360710134198</v>
+        <v>-0.981147411280848</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.864681824892635</v>
+        <v>-0.858674536582941</v>
       </c>
       <c r="L3" t="n">
-        <v>0.976942819848314</v>
+        <v>0.977776237804515</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0463962110648951</v>
+        <v>-0.0494685352528135</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.66348458934856</v>
+        <v>-2.80924484210361</v>
       </c>
       <c r="O3" t="n">
-        <v>3.24128893572162</v>
+        <v>3.28039420639715</v>
       </c>
     </row>
     <row r="4">
@@ -593,46 +593,46 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.96180749989664</v>
+        <v>0.959724684595245</v>
       </c>
       <c r="C5" t="n">
-        <v>209.082491389357</v>
+        <v>210.937762444454</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.980597891921489</v>
+        <v>-0.981720824377626</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.965298129808319</v>
+        <v>-0.962931925400802</v>
       </c>
       <c r="F5" t="n">
-        <v>0.976689839206097</v>
+        <v>0.977548068821597</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.7874544116808</v>
+        <v>-11.9543803291666</v>
       </c>
       <c r="H5" t="n">
-        <v>-752.933732297715</v>
+        <v>-760.853197313738</v>
       </c>
       <c r="I5" t="n">
-        <v>3.27205019957783</v>
+        <v>3.31115547025337</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.992609080803939</v>
+        <v>-0.997005467917682</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.950411360499961</v>
+        <v>-0.945219214524355</v>
       </c>
       <c r="L5" t="n">
-        <v>0.976689839206097</v>
+        <v>0.977548068821597</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.070670690655805</v>
+        <v>-0.0737430148437234</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.39075221822583</v>
+        <v>-4.53651247098088</v>
       </c>
       <c r="O5" t="n">
-        <v>3.27205019957783</v>
+        <v>3.31115547025337</v>
       </c>
     </row>
   </sheetData>
